--- a/test/org/hy/common/report/junit/font/JU_FontReport.xlsx
+++ b/test/org/hy/common/report/junit/font/JU_FontReport.xlsx
@@ -49,6 +49,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>富文本演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>11号字</t>
     </r>
@@ -74,10 +78,6 @@
       </rPr>
       <t>20号字</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富文本演示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test/org/hy/common/report/junit/font/JU_FontReport.xlsx
+++ b/test/org/hy/common/report/junit/font/JU_FontReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>11号字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,12 +80,54 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="24"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{:world}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24号字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +172,40 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,6 +240,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,6 +569,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
